--- a/data/trans_orig/P19C09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E311521-C605-4B0E-B735-626C00A6CDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77FBBC40-D5B0-41F7-8E07-5749135D29D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4FABE4A7-714A-4EC4-B675-3E54FB00D561}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E71304C-0698-4C4F-9B5B-ED9C00F2CED1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -76,1222 +76,1222 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,67%</t>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
   <si>
     <t>94,81%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>97,78%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>95,56%</t>
   </si>
   <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>98,93%</t>
   </si>
   <si>
     <t>96,99%</t>
   </si>
   <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>0,66%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>1,15%</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
     <t>98,47%</t>
   </si>
   <si>
-    <t>99,34%</t>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>98,85%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>3,27%</t>
+    <t>3,28%</t>
   </si>
   <si>
     <t>97,15%</t>
   </si>
   <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>96,73%</t>
+    <t>96,72%</t>
   </si>
 </sst>
 </file>
@@ -1703,7 +1703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521C82F3-E23C-4FA0-9633-A733C9E283D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6DBE3F-E472-44F5-A6CB-D7BD291C1301}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2310,10 +2310,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -2325,10 +2325,10 @@
         <v>38</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2343,13 @@
         <v>258065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>298</v>
@@ -2358,13 +2358,13 @@
         <v>289919</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>558</v>
@@ -2376,10 +2376,10 @@
         <v>47</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,7 +2435,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2447,13 +2447,13 @@
         <v>5952</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2462,13 +2462,13 @@
         <v>4848</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2477,13 +2477,13 @@
         <v>10800</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2498,13 @@
         <v>164326</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>161</v>
@@ -2513,13 +2513,13 @@
         <v>169058</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>326</v>
@@ -2528,13 +2528,13 @@
         <v>333384</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,7 +2590,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2602,13 +2602,13 @@
         <v>4106</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -2617,13 +2617,13 @@
         <v>5319</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -2632,13 +2632,13 @@
         <v>9425</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,13 +2653,13 @@
         <v>185164</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>194</v>
@@ -2668,13 +2668,13 @@
         <v>199169</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>376</v>
@@ -2683,13 +2683,13 @@
         <v>384333</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,7 +2745,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2760,10 +2760,10 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -2772,13 +2772,13 @@
         <v>23633</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -2787,13 +2787,13 @@
         <v>34437</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,10 +2811,10 @@
         <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>502</v>
@@ -2823,13 +2823,13 @@
         <v>515735</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="M23" s="7">
         <v>945</v>
@@ -2912,7 +2912,7 @@
         <v>11309</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>140</v>
@@ -2933,7 +2933,7 @@
         <v>143</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -2942,13 +2942,13 @@
         <v>21402</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2963,13 @@
         <v>511032</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>553</v>
@@ -2978,13 +2978,13 @@
         <v>578638</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>1060</v>
@@ -2993,13 +2993,13 @@
         <v>1089669</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3067,13 @@
         <v>64290</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>83</v>
@@ -3082,13 +3082,13 @@
         <v>86034</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M28" s="7">
         <v>146</v>
@@ -3097,13 +3097,13 @@
         <v>150323</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,16 +3115,16 @@
         <v>2340</v>
       </c>
       <c r="D29" s="7">
-        <v>2386201</v>
+        <v>2386200</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H29" s="7">
         <v>2593</v>
@@ -3133,13 +3133,13 @@
         <v>2651221</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>4933</v>
@@ -3148,13 +3148,13 @@
         <v>5037423</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,7 +3166,7 @@
         <v>2403</v>
       </c>
       <c r="D30" s="7">
-        <v>2450491</v>
+        <v>2450490</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3210,7 +3210,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3234,7 +3234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2D5B44-BAF5-4A9A-97EC-0954EF8852D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B18020-7BE1-4786-83A9-9D513E8EAB4B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3251,7 +3251,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3356,39 +3356,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,39 +3401,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,39 +3446,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3495,13 @@
         <v>4992</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -3510,13 +3510,13 @@
         <v>9229</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -3525,13 +3525,13 @@
         <v>14221</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3546,13 @@
         <v>389958</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>372</v>
@@ -3561,13 +3561,13 @@
         <v>402769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>740</v>
@@ -3576,13 +3576,13 @@
         <v>792727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3650,13 @@
         <v>4025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3665,13 +3665,13 @@
         <v>9617</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3680,13 +3680,13 @@
         <v>13642</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3701,13 @@
         <v>288704</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -3716,13 +3716,13 @@
         <v>319135</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>580</v>
@@ -3731,13 +3731,13 @@
         <v>607839</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3805,13 @@
         <v>14121</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3820,13 +3820,13 @@
         <v>32548</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -3835,13 +3835,13 @@
         <v>46668</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3856,13 @@
         <v>542696</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>518</v>
@@ -3871,13 +3871,13 @@
         <v>557385</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>1032</v>
@@ -3886,13 +3886,13 @@
         <v>1100082</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,7 +3948,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3960,13 +3960,13 @@
         <v>3098</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3975,13 +3975,13 @@
         <v>3693</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3990,13 +3990,13 @@
         <v>6790</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>53</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4011,13 @@
         <v>154356</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -4026,7 +4026,7 @@
         <v>162947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>49</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>234</v>
@@ -4044,10 +4044,10 @@
         <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,7 +4103,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4115,13 +4115,13 @@
         <v>3906</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4130,13 +4130,13 @@
         <v>8845</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -4145,13 +4145,13 @@
         <v>12752</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4166,13 @@
         <v>245108</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H20" s="7">
         <v>246</v>
@@ -4181,13 +4181,13 @@
         <v>255985</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M20" s="7">
         <v>479</v>
@@ -4196,13 +4196,13 @@
         <v>501092</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,7 +4258,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4270,13 +4270,13 @@
         <v>13496</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>253</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -4285,13 +4285,13 @@
         <v>13857</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -4300,13 +4300,13 @@
         <v>27353</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4321,13 @@
         <v>560657</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="H23" s="7">
         <v>558</v>
@@ -4336,13 +4336,13 @@
         <v>611163</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>233</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>1081</v>
@@ -4351,13 +4351,13 @@
         <v>1171821</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4425,13 @@
         <v>5148</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -4440,13 +4440,13 @@
         <v>8371</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>269</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4455,13 +4455,13 @@
         <v>13519</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>89</v>
+        <v>270</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4476,13 @@
         <v>606455</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H26" s="7">
         <v>620</v>
@@ -4491,13 +4491,13 @@
         <v>674640</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="M26" s="7">
         <v>1181</v>
@@ -4506,13 +4506,13 @@
         <v>1281094</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>99</v>
+        <v>277</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4580,13 @@
         <v>48784</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
@@ -4595,13 +4595,13 @@
         <v>86161</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>276</v>
+        <v>106</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>277</v>
+        <v>87</v>
       </c>
       <c r="M28" s="7">
         <v>122</v>
@@ -4610,13 +4610,13 @@
         <v>134945</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,16 +4628,16 @@
         <v>2626</v>
       </c>
       <c r="D29" s="7">
-        <v>2787936</v>
+        <v>2787935</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>281</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="H29" s="7">
         <v>2768</v>
@@ -4646,13 +4646,13 @@
         <v>2984023</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>283</v>
+        <v>96</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>284</v>
+        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>5394</v>
@@ -4661,7 +4661,7 @@
         <v>5771958</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>285</v>
@@ -4679,7 +4679,7 @@
         <v>2671</v>
       </c>
       <c r="D30" s="7">
-        <v>2836720</v>
+        <v>2836719</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4747,7 +4747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2FB465-CA49-407D-9679-C26FCD68137A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAF9ADE-C827-43E6-8FC5-7CDB11856B1A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4877,7 +4877,7 @@
         <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>290</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4886,13 +4886,13 @@
         <v>11367</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4901,13 +4901,13 @@
         <v>22533</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4922,13 @@
         <v>234052</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>298</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H5" s="7">
         <v>229</v>
@@ -4937,13 +4937,13 @@
         <v>234967</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="M5" s="7">
         <v>439</v>
@@ -4952,13 +4952,13 @@
         <v>469018</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5026,13 @@
         <v>9656</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5041,13 +5041,13 @@
         <v>5356</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>57</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -5056,13 +5056,13 @@
         <v>15012</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5077,13 @@
         <v>353509</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H8" s="7">
         <v>367</v>
@@ -5092,13 +5092,13 @@
         <v>387971</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
         <v>700</v>
@@ -5107,13 +5107,13 @@
         <v>741480</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>321</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5181,13 @@
         <v>2940</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5196,13 +5196,13 @@
         <v>3980</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5211,13 +5211,13 @@
         <v>6920</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>327</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,16 +5229,16 @@
         <v>300</v>
       </c>
       <c r="D11" s="7">
-        <v>287566</v>
+        <v>287567</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H11" s="7">
         <v>302</v>
@@ -5247,13 +5247,13 @@
         <v>303784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M11" s="7">
         <v>602</v>
@@ -5262,13 +5262,13 @@
         <v>591350</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>335</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,7 +5280,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5336,13 +5336,13 @@
         <v>22481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -5351,13 +5351,13 @@
         <v>18482</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -5366,13 +5366,13 @@
         <v>40962</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5387,13 @@
         <v>307566</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
         <v>305</v>
@@ -5402,13 +5402,13 @@
         <v>330379</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
         <v>598</v>
@@ -5417,13 +5417,13 @@
         <v>637946</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,7 +5479,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5491,13 +5491,13 @@
         <v>4766</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5506,13 +5506,13 @@
         <v>6688</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5521,13 +5521,13 @@
         <v>11454</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>53</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,13 +5542,13 @@
         <v>114456</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>259</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
         <v>145</v>
@@ -5557,13 +5557,13 @@
         <v>138812</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
         <v>258</v>
@@ -5572,13 +5572,13 @@
         <v>253268</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,7 +5634,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5646,13 +5646,13 @@
         <v>1959</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>369</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5661,13 +5661,13 @@
         <v>5334</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5676,13 +5676,13 @@
         <v>7292</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,10 +5697,10 @@
         <v>231656</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>375</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>376</v>
@@ -5727,13 +5727,13 @@
         <v>473461</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,7 +5789,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5801,13 +5801,13 @@
         <v>9894</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>382</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>383</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5816,13 +5816,13 @@
         <v>14639</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -5831,13 +5831,13 @@
         <v>24533</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>387</v>
+        <v>74</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>388</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5852,13 @@
         <v>432413</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>387</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H23" s="7">
         <v>447</v>
@@ -5867,13 +5867,13 @@
         <v>472412</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M23" s="7">
         <v>825</v>
@@ -5882,13 +5882,13 @@
         <v>904825</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>393</v>
+        <v>330</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>394</v>
+        <v>260</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>395</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5956,13 +5956,13 @@
         <v>13200</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>393</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>32</v>
+        <v>394</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -5971,13 +5971,13 @@
         <v>10555</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -5986,13 +5986,13 @@
         <v>23755</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>400</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>401</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,28 +6007,28 @@
         <v>627052</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
       </c>
       <c r="I26" s="7">
-        <v>680787</v>
+        <v>680786</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>403</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>97</v>
+        <v>404</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M26" s="7">
         <v>1229</v>
@@ -6037,10 +6037,10 @@
         <v>1307838</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>406</v>
+        <v>118</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>407</v>
@@ -6070,7 +6070,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6117,7 +6117,7 @@
         <v>409</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>410</v>
+        <v>70</v>
       </c>
       <c r="H28" s="7">
         <v>71</v>
@@ -6126,13 +6126,13 @@
         <v>76400</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>265</v>
+        <v>410</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>313</v>
+        <v>129</v>
       </c>
       <c r="M28" s="7">
         <v>143</v>
@@ -6144,7 +6144,7 @@
         <v>411</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>274</v>
+        <v>130</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>412</v>
@@ -6159,16 +6159,16 @@
         <v>2458</v>
       </c>
       <c r="D29" s="7">
-        <v>2588272</v>
+        <v>2588271</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>413</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H29" s="7">
         <v>2656</v>
@@ -6177,19 +6177,19 @@
         <v>2790915</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>136</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>269</v>
+        <v>415</v>
       </c>
       <c r="M29" s="7">
         <v>5114</v>
       </c>
       <c r="N29" s="7">
-        <v>5379187</v>
+        <v>5379186</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>416</v>
@@ -6198,7 +6198,7 @@
         <v>417</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>281</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,7 +6210,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6240,7 +6240,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6254,7 +6254,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77FBBC40-D5B0-41F7-8E07-5749135D29D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71465CF6-BE3F-4476-A9AD-3761A96D895C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E71304C-0698-4C4F-9B5B-ED9C00F2CED1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3219BBA-6C2A-4D88-8B0A-AF08B17297F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="416">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2007 (Tasa respuesta: 78,01%)</t>
   </si>
@@ -76,1222 +76,1216 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>97,71%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>96,72%</t>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
 </sst>
 </file>
@@ -1703,7 +1697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6DBE3F-E472-44F5-A6CB-D7BD291C1301}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2113D133-855A-422E-9CAF-0805A2DE1409}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2775,10 +2769,10 @@
         <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -2787,13 +2781,13 @@
         <v>34437</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,10 +2805,10 @@
         <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>502</v>
@@ -2823,13 +2817,13 @@
         <v>515735</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>945</v>
@@ -2838,13 +2832,13 @@
         <v>969255</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,7 +2894,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2915,10 +2909,10 @@
         <v>106</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -2927,13 +2921,13 @@
         <v>10092</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -2942,13 +2936,13 @@
         <v>21402</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,10 +2960,10 @@
         <v>115</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>553</v>
@@ -2978,13 +2972,13 @@
         <v>578638</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>1060</v>
@@ -2993,13 +2987,13 @@
         <v>1089669</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3061,13 @@
         <v>64290</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>83</v>
@@ -3085,10 +3079,10 @@
         <v>93</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M28" s="7">
         <v>146</v>
@@ -3097,13 +3091,13 @@
         <v>150323</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3112,13 @@
         <v>2386200</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="H29" s="7">
         <v>2593</v>
@@ -3234,7 +3228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B18020-7BE1-4786-83A9-9D513E8EAB4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D4F53F-5B8E-4F6A-9F6E-9D0500DE9FCF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3495,13 +3489,13 @@
         <v>4992</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -3510,13 +3504,13 @@
         <v>9229</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -3525,13 +3519,13 @@
         <v>14221</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3540,13 @@
         <v>389958</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H8" s="7">
         <v>372</v>
@@ -3561,13 +3555,13 @@
         <v>402769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
         <v>740</v>
@@ -3576,13 +3570,13 @@
         <v>792727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3644,13 @@
         <v>4025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3665,13 +3659,13 @@
         <v>9617</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3680,13 +3674,13 @@
         <v>13642</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3695,13 @@
         <v>288704</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -3716,13 +3710,13 @@
         <v>319135</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>580</v>
@@ -3731,13 +3725,13 @@
         <v>607839</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3799,13 @@
         <v>14121</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3820,13 +3814,13 @@
         <v>32548</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -3835,13 +3829,13 @@
         <v>46668</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,28 +3850,28 @@
         <v>542696</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>518</v>
       </c>
       <c r="I14" s="7">
-        <v>557385</v>
+        <v>557386</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>1032</v>
@@ -3886,13 +3880,13 @@
         <v>1100082</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,7 +3913,7 @@
         <v>546</v>
       </c>
       <c r="I15" s="7">
-        <v>589933</v>
+        <v>589934</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3960,13 +3954,13 @@
         <v>3098</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3975,13 +3969,13 @@
         <v>3693</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>224</v>
+        <v>39</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3990,13 +3984,13 @@
         <v>6790</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4005,13 @@
         <v>154356</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -4026,13 +4020,13 @@
         <v>162947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>301</v>
@@ -4041,13 +4035,13 @@
         <v>317304</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4109,13 @@
         <v>3906</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4130,13 +4124,13 @@
         <v>8845</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -4145,13 +4139,13 @@
         <v>12752</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4160,13 @@
         <v>245108</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>246</v>
@@ -4181,13 +4175,13 @@
         <v>255985</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>252</v>
+        <v>83</v>
       </c>
       <c r="M20" s="7">
         <v>479</v>
@@ -4196,13 +4190,13 @@
         <v>501092</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4264,13 @@
         <v>13496</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -4285,13 +4279,13 @@
         <v>13857</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>224</v>
+        <v>39</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -4300,13 +4294,13 @@
         <v>27353</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4315,13 @@
         <v>560657</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>558</v>
@@ -4336,13 +4330,13 @@
         <v>611163</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>259</v>
       </c>
       <c r="M23" s="7">
         <v>1081</v>
@@ -4351,13 +4345,13 @@
         <v>1171821</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,7 +4407,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4425,13 +4419,13 @@
         <v>5148</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -4440,13 +4434,13 @@
         <v>8371</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4455,13 +4449,13 @@
         <v>13519</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,7 +4467,7 @@
         <v>561</v>
       </c>
       <c r="D26" s="7">
-        <v>606455</v>
+        <v>606454</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>272</v>
@@ -4497,7 +4491,7 @@
         <v>276</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="M26" s="7">
         <v>1181</v>
@@ -4506,13 +4500,13 @@
         <v>1281094</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,7 +4518,7 @@
         <v>565</v>
       </c>
       <c r="D27" s="7">
-        <v>611603</v>
+        <v>611602</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -4580,13 +4574,13 @@
         <v>48784</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
@@ -4595,13 +4589,13 @@
         <v>86161</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>280</v>
+        <v>128</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>87</v>
+        <v>283</v>
       </c>
       <c r="M28" s="7">
         <v>122</v>
@@ -4610,13 +4604,13 @@
         <v>134945</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>281</v>
+        <v>58</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,16 +4622,16 @@
         <v>2626</v>
       </c>
       <c r="D29" s="7">
-        <v>2787935</v>
+        <v>2787936</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="H29" s="7">
         <v>2768</v>
@@ -4646,13 +4640,13 @@
         <v>2984023</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>284</v>
+        <v>137</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>96</v>
+        <v>287</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="M29" s="7">
         <v>5394</v>
@@ -4661,13 +4655,13 @@
         <v>5771958</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>286</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,7 +4673,7 @@
         <v>2671</v>
       </c>
       <c r="D30" s="7">
-        <v>2836719</v>
+        <v>2836720</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -4747,7 +4741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAF9ADE-C827-43E6-8FC5-7CDB11856B1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BEBD86-EEB3-48D8-B78E-C933AD03DD6E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4764,7 +4758,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4871,13 +4865,13 @@
         <v>11166</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>292</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4886,13 +4880,13 @@
         <v>11367</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4901,13 +4895,13 @@
         <v>22533</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>59</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4916,13 @@
         <v>234052</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>299</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H5" s="7">
         <v>229</v>
@@ -4937,13 +4931,13 @@
         <v>234967</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="M5" s="7">
         <v>439</v>
@@ -4952,13 +4946,13 @@
         <v>469018</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>67</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5020,13 @@
         <v>9656</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5041,13 +5035,13 @@
         <v>5356</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -5056,13 +5050,13 @@
         <v>15012</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>125</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>309</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5071,13 @@
         <v>353509</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H8" s="7">
         <v>367</v>
@@ -5092,13 +5086,13 @@
         <v>387971</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>700</v>
@@ -5107,13 +5101,13 @@
         <v>741480</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>317</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5175,13 @@
         <v>2940</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5196,13 +5190,13 @@
         <v>3980</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5211,13 +5205,13 @@
         <v>6920</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>327</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5226,13 @@
         <v>287567</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>331</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H11" s="7">
         <v>302</v>
@@ -5247,13 +5241,13 @@
         <v>303784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>327</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
         <v>602</v>
@@ -5262,13 +5256,13 @@
         <v>591350</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5330,13 @@
         <v>22481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -5351,13 +5345,13 @@
         <v>18482</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>336</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -5366,13 +5360,13 @@
         <v>40962</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>339</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5381,13 @@
         <v>307566</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>305</v>
@@ -5402,13 +5396,13 @@
         <v>330379</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>346</v>
+        <v>24</v>
       </c>
       <c r="M14" s="7">
         <v>598</v>
@@ -5417,13 +5411,13 @@
         <v>637946</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>349</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5485,13 @@
         <v>4766</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>351</v>
+        <v>189</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5506,13 +5500,13 @@
         <v>6688</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5521,13 +5515,13 @@
         <v>11454</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>356</v>
+        <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,13 +5536,13 @@
         <v>114456</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>360</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>361</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>145</v>
@@ -5557,13 +5551,13 @@
         <v>138812</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M17" s="7">
         <v>258</v>
@@ -5572,13 +5566,13 @@
         <v>253268</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>365</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>367</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5640,13 @@
         <v>1959</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5661,13 +5655,13 @@
         <v>5334</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>371</v>
+        <v>144</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5676,13 +5670,13 @@
         <v>7292</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>367</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,10 +5694,10 @@
         <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H20" s="7">
         <v>235</v>
@@ -5712,13 +5706,13 @@
         <v>241803</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>378</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>379</v>
+        <v>152</v>
       </c>
       <c r="M20" s="7">
         <v>463</v>
@@ -5727,13 +5721,13 @@
         <v>473461</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>373</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5795,13 @@
         <v>9894</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>382</v>
+        <v>269</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5816,13 +5810,13 @@
         <v>14639</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -5831,13 +5825,13 @@
         <v>24533</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>74</v>
+        <v>381</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>255</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5846,13 @@
         <v>432413</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>447</v>
@@ -5867,13 +5861,13 @@
         <v>472412</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="M23" s="7">
         <v>825</v>
@@ -5882,13 +5876,13 @@
         <v>904825</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>260</v>
+        <v>388</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>83</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,7 +5938,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5956,13 +5950,13 @@
         <v>13200</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>394</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -5971,13 +5965,13 @@
         <v>10555</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>395</v>
+        <v>18</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -5986,13 +5980,13 @@
         <v>23755</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>399</v>
+        <v>327</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,13 +6001,13 @@
         <v>627052</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>401</v>
+        <v>164</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -6022,13 +6016,13 @@
         <v>680786</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>403</v>
+        <v>29</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M26" s="7">
         <v>1229</v>
@@ -6037,13 +6031,13 @@
         <v>1307838</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>118</v>
+        <v>401</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>407</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,13 +6105,13 @@
         <v>76062</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>409</v>
+        <v>39</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>70</v>
+        <v>403</v>
       </c>
       <c r="H28" s="7">
         <v>71</v>
@@ -6126,13 +6120,13 @@
         <v>76400</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>405</v>
       </c>
       <c r="M28" s="7">
         <v>143</v>
@@ -6141,13 +6135,13 @@
         <v>152462</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>130</v>
+        <v>407</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,16 +6153,16 @@
         <v>2458</v>
       </c>
       <c r="D29" s="7">
-        <v>2588271</v>
+        <v>2588272</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>414</v>
+        <v>49</v>
       </c>
       <c r="H29" s="7">
         <v>2656</v>
@@ -6177,13 +6171,13 @@
         <v>2790915</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>136</v>
+        <v>411</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M29" s="7">
         <v>5114</v>
@@ -6192,13 +6186,13 @@
         <v>5379186</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>138</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,7 +6204,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P19C09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71465CF6-BE3F-4476-A9AD-3761A96D895C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{592345E3-73D0-4C34-9938-0B3CCE3D2FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3219BBA-6C2A-4D88-8B0A-AF08B17297F8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBDA0BE5-EBF4-4576-9A32-56233C2910F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="418">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2007 (Tasa respuesta: 78,01%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,33%</t>
@@ -79,1213 +79,1219 @@
     <t>0,91%</t>
   </si>
   <si>
-    <t>5,32%</t>
+    <t>5,19%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>98,47%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>97,74%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>96,73%</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2113D133-855A-422E-9CAF-0805A2DE1409}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216D07E2-C530-4EBD-9D9D-FFCA15163101}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2304,10 +2310,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -2319,10 +2325,10 @@
         <v>38</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2343,13 @@
         <v>258065</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>298</v>
@@ -2352,13 +2358,13 @@
         <v>289919</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>558</v>
@@ -2370,10 +2376,10 @@
         <v>47</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,7 +2435,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2441,13 +2447,13 @@
         <v>5952</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2456,13 +2462,13 @@
         <v>4848</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2471,13 +2477,13 @@
         <v>10800</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,13 +2498,13 @@
         <v>164326</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>161</v>
@@ -2507,13 +2513,13 @@
         <v>169058</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>326</v>
@@ -2522,13 +2528,13 @@
         <v>333384</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,7 +2590,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2596,13 +2602,13 @@
         <v>4106</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -2611,13 +2617,13 @@
         <v>5319</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -2626,13 +2632,13 @@
         <v>9425</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2653,13 @@
         <v>185164</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>194</v>
@@ -2662,13 +2668,13 @@
         <v>199169</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>376</v>
@@ -2677,13 +2683,13 @@
         <v>384333</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,7 +2745,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2754,10 +2760,10 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -2766,13 +2772,13 @@
         <v>23633</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -2781,13 +2787,13 @@
         <v>34437</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,10 +2811,10 @@
         <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>502</v>
@@ -2817,13 +2823,13 @@
         <v>515735</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>945</v>
@@ -2832,13 +2838,13 @@
         <v>969255</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,7 +2900,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2906,13 +2912,13 @@
         <v>11309</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -2921,13 +2927,13 @@
         <v>10092</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -2936,13 +2942,13 @@
         <v>21402</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,10 +2963,10 @@
         <v>511032</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>149</v>
@@ -3064,10 +3070,10 @@
         <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>83</v>
@@ -3076,13 +3082,13 @@
         <v>86034</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>146</v>
@@ -3091,13 +3097,13 @@
         <v>150323</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,16 +3115,16 @@
         <v>2340</v>
       </c>
       <c r="D29" s="7">
-        <v>2386200</v>
+        <v>2386201</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="H29" s="7">
         <v>2593</v>
@@ -3127,13 +3133,13 @@
         <v>2651221</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>4933</v>
@@ -3142,13 +3148,13 @@
         <v>5037423</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,7 +3166,7 @@
         <v>2403</v>
       </c>
       <c r="D30" s="7">
-        <v>2450490</v>
+        <v>2450491</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3204,7 +3210,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3228,7 +3234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D4F53F-5B8E-4F6A-9F6E-9D0500DE9FCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AA8649-7236-4F20-AD06-5404D0F3A484}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3245,7 +3251,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3350,39 +3356,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,39 +3401,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,39 +3446,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3495,13 @@
         <v>4992</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -3504,13 +3510,13 @@
         <v>9229</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -3519,13 +3525,13 @@
         <v>14221</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,13 +3546,13 @@
         <v>389958</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>372</v>
@@ -3555,13 +3561,13 @@
         <v>402769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>740</v>
@@ -3570,13 +3576,13 @@
         <v>792727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3650,13 @@
         <v>4025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3659,13 +3665,13 @@
         <v>9617</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3674,13 +3680,13 @@
         <v>13642</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3701,13 @@
         <v>288704</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -3710,13 +3716,13 @@
         <v>319135</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>580</v>
@@ -3725,13 +3731,13 @@
         <v>607839</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3805,13 @@
         <v>14121</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3814,13 +3820,13 @@
         <v>32548</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -3829,13 +3835,13 @@
         <v>46668</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,28 +3856,28 @@
         <v>542696</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>518</v>
       </c>
       <c r="I14" s="7">
-        <v>557386</v>
+        <v>557385</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>1032</v>
@@ -3880,13 +3886,13 @@
         <v>1100082</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,7 +3919,7 @@
         <v>546</v>
       </c>
       <c r="I15" s="7">
-        <v>589934</v>
+        <v>589933</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3942,7 +3948,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3954,13 +3960,13 @@
         <v>3098</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3972,10 +3978,10 @@
         <v>39</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3984,13 +3990,13 @@
         <v>6790</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +4011,13 @@
         <v>154356</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -4023,10 +4029,10 @@
         <v>49</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>301</v>
@@ -4035,13 +4041,13 @@
         <v>317304</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,7 +4103,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4109,13 +4115,13 @@
         <v>3906</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4124,13 +4130,13 @@
         <v>8845</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -4139,13 +4145,13 @@
         <v>12752</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4166,13 @@
         <v>245108</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>246</v>
@@ -4175,13 +4181,13 @@
         <v>255985</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>165</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>83</v>
+        <v>249</v>
       </c>
       <c r="M20" s="7">
         <v>479</v>
@@ -4190,13 +4196,13 @@
         <v>501092</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,7 +4258,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4264,13 +4270,13 @@
         <v>13496</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -4282,10 +4288,10 @@
         <v>39</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -4294,13 +4300,13 @@
         <v>27353</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4321,13 @@
         <v>560657</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="H23" s="7">
         <v>558</v>
@@ -4333,10 +4339,10 @@
         <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>259</v>
+        <v>155</v>
       </c>
       <c r="M23" s="7">
         <v>1081</v>
@@ -4345,13 +4351,13 @@
         <v>1171821</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,7 +4413,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4434,13 +4440,13 @@
         <v>8371</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>268</v>
+        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4449,13 +4455,13 @@
         <v>13519</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>269</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>271</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,16 +4473,16 @@
         <v>561</v>
       </c>
       <c r="D26" s="7">
-        <v>606454</v>
+        <v>606455</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H26" s="7">
         <v>620</v>
@@ -4485,13 +4491,13 @@
         <v>674640</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>275</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>276</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M26" s="7">
         <v>1181</v>
@@ -4500,13 +4506,13 @@
         <v>1281094</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>278</v>
+        <v>99</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>279</v>
+        <v>153</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,7 +4524,7 @@
         <v>565</v>
       </c>
       <c r="D27" s="7">
-        <v>611602</v>
+        <v>611603</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -4574,13 +4580,13 @@
         <v>48784</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
@@ -4589,13 +4595,13 @@
         <v>86161</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M28" s="7">
         <v>122</v>
@@ -4604,13 +4610,13 @@
         <v>134945</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>58</v>
+        <v>278</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4631,13 @@
         <v>2787936</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>286</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>2768</v>
@@ -4640,13 +4646,13 @@
         <v>2984023</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>180</v>
+        <v>284</v>
       </c>
       <c r="M29" s="7">
         <v>5394</v>
@@ -4655,13 +4661,13 @@
         <v>5771958</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>68</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,7 +4723,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4741,7 +4747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BEBD86-EEB3-48D8-B78E-C933AD03DD6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71366A8-1BE2-4DBA-83A9-63E15208C2A7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4758,7 +4764,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4865,13 +4871,13 @@
         <v>11166</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4880,13 +4886,13 @@
         <v>11367</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4895,13 +4901,13 @@
         <v>22533</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4922,13 @@
         <v>234052</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H5" s="7">
         <v>229</v>
@@ -4931,13 +4937,13 @@
         <v>234967</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M5" s="7">
         <v>439</v>
@@ -4946,7 +4952,7 @@
         <v>469018</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>67</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>304</v>
@@ -5041,7 +5047,7 @@
         <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>311</v>
+        <v>57</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -5050,13 +5056,13 @@
         <v>15012</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,10 +5095,10 @@
         <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>700</v>
@@ -5101,10 +5107,10 @@
         <v>741480</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>321</v>
@@ -5181,7 +5187,7 @@
         <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5190,7 +5196,7 @@
         <v>3980</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>325</v>
@@ -5223,16 +5229,16 @@
         <v>300</v>
       </c>
       <c r="D11" s="7">
-        <v>287567</v>
+        <v>287566</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>330</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H11" s="7">
         <v>302</v>
@@ -5241,7 +5247,7 @@
         <v>303784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>333</v>
@@ -5274,7 +5280,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290507</v>
+        <v>290506</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5348,10 +5354,10 @@
         <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -5360,13 +5366,13 @@
         <v>40962</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5387,13 @@
         <v>307566</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
         <v>305</v>
@@ -5396,13 +5402,13 @@
         <v>330379</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>24</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
         <v>598</v>
@@ -5411,13 +5417,13 @@
         <v>637946</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,7 +5479,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5485,13 +5491,13 @@
         <v>4766</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>352</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>356</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5500,13 +5506,13 @@
         <v>6688</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5518,10 +5524,10 @@
         <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>268</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,13 +5542,13 @@
         <v>114456</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
         <v>145</v>
@@ -5551,13 +5557,13 @@
         <v>138812</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
         <v>258</v>
@@ -5569,10 +5575,10 @@
         <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,7 +5634,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5643,10 +5649,10 @@
         <v>263</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>365</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5655,13 +5661,13 @@
         <v>5334</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>144</v>
+        <v>372</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5670,13 +5676,13 @@
         <v>7292</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>368</v>
+        <v>266</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5697,13 @@
         <v>231656</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>370</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H20" s="7">
         <v>235</v>
@@ -5706,13 +5712,13 @@
         <v>241803</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>152</v>
+        <v>379</v>
       </c>
       <c r="M20" s="7">
         <v>463</v>
@@ -5721,13 +5727,13 @@
         <v>473461</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>375</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,7 +5789,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5795,13 +5801,13 @@
         <v>9894</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>269</v>
+        <v>382</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5810,13 +5816,13 @@
         <v>14639</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -5825,13 +5831,13 @@
         <v>24533</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5852,13 @@
         <v>432413</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="H23" s="7">
         <v>447</v>
@@ -5861,13 +5867,13 @@
         <v>472412</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="M23" s="7">
         <v>825</v>
@@ -5876,13 +5882,13 @@
         <v>904825</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,7 +5944,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5950,13 +5956,13 @@
         <v>13200</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>391</v>
+        <v>111</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -5965,13 +5971,13 @@
         <v>10555</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>18</v>
+        <v>397</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>393</v>
+        <v>88</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -5980,13 +5986,13 @@
         <v>23755</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>327</v>
+        <v>400</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6001,28 +6007,28 @@
         <v>627052</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>397</v>
+        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
       </c>
       <c r="I26" s="7">
-        <v>680786</v>
+        <v>680787</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>29</v>
+        <v>403</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>398</v>
+        <v>97</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M26" s="7">
         <v>1229</v>
@@ -6031,13 +6037,13 @@
         <v>1307838</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>335</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,7 +6070,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691341</v>
+        <v>691342</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6105,13 +6111,13 @@
         <v>76062</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>39</v>
+        <v>409</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="H28" s="7">
         <v>71</v>
@@ -6123,10 +6129,10 @@
         <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>404</v>
+        <v>265</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>405</v>
+        <v>313</v>
       </c>
       <c r="M28" s="7">
         <v>143</v>
@@ -6135,13 +6141,13 @@
         <v>152462</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>407</v>
+        <v>274</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6156,13 +6162,13 @@
         <v>2588272</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>49</v>
+        <v>415</v>
       </c>
       <c r="H29" s="7">
         <v>2656</v>
@@ -6174,25 +6180,25 @@
         <v>314</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>411</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>412</v>
+        <v>269</v>
       </c>
       <c r="M29" s="7">
         <v>5114</v>
       </c>
       <c r="N29" s="7">
-        <v>5379186</v>
+        <v>5379187</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>415</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,7 +6240,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6248,7 +6254,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{592345E3-73D0-4C34-9938-0B3CCE3D2FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A7CE3BD-52F3-4EFB-8DAB-EB6CCE51BCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBDA0BE5-EBF4-4576-9A32-56233C2910F0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{77F7BF7A-EB1C-4FEB-A3C6-FBA2705BB804}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="427">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2007 (Tasa respuesta: 78,01%)</t>
   </si>
@@ -562,7 +562,46 @@
     <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>1,26%</t>
@@ -580,9 +619,6 @@
     <t>1,02%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
     <t>1,76%</t>
   </si>
   <si>
@@ -604,9 +640,6 @@
     <t>97,76%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
     <t>98,98%</t>
   </si>
   <si>
@@ -667,505 +700,499 @@
     <t>98,69%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
   </si>
   <si>
     <t>97,05%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -1703,7 +1730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216D07E2-C530-4EBD-9D9D-FFCA15163101}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C61BBAE-B70C-4B7E-991C-5CBE027E7869}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3145,7 +3172,7 @@
         <v>4933</v>
       </c>
       <c r="N29" s="7">
-        <v>5037423</v>
+        <v>5037422</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>169</v>
@@ -3196,7 +3223,7 @@
         <v>5079</v>
       </c>
       <c r="N30" s="7">
-        <v>5187746</v>
+        <v>5187745</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3234,7 +3261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AA8649-7236-4F20-AD06-5404D0F3A484}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F25211E-9CCA-46DC-96AC-A22A30E4BE4E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3352,43 +3379,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4029</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="I4" s="7">
+        <v>19235</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="N4" s="7">
+        <v>23264</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,43 +3430,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>237</v>
+      </c>
+      <c r="D5" s="7">
+        <v>245717</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>206</v>
+      </c>
+      <c r="I5" s="7">
+        <v>230004</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>443</v>
+      </c>
+      <c r="N5" s="7">
+        <v>475721</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,43 +3481,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>240</v>
+      </c>
+      <c r="D6" s="7">
+        <v>249746</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="I6" s="7">
+        <v>249239</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>462</v>
+      </c>
+      <c r="N6" s="7">
+        <v>498985</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3540,13 @@
         <v>4992</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -3510,13 +3555,13 @@
         <v>9229</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -3525,13 +3570,13 @@
         <v>14221</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3591,13 @@
         <v>389958</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
         <v>372</v>
@@ -3561,13 +3606,13 @@
         <v>402769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M8" s="7">
         <v>740</v>
@@ -3576,13 +3621,13 @@
         <v>792727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3695,13 @@
         <v>4025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3665,10 +3710,10 @@
         <v>9617</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3680,13 +3725,13 @@
         <v>13642</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3746,13 @@
         <v>288704</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -3716,13 +3761,13 @@
         <v>319135</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>580</v>
@@ -3731,13 +3776,13 @@
         <v>607839</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,49 +3844,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <v>10092</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H13" s="7">
         <v>12</v>
       </c>
-      <c r="D13" s="7">
-        <v>14121</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H13" s="7">
-        <v>28</v>
-      </c>
       <c r="I13" s="7">
-        <v>32548</v>
+        <v>13313</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>46668</v>
+        <v>23405</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,49 +3895,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>514</v>
+        <v>277</v>
       </c>
       <c r="D14" s="7">
-        <v>542696</v>
+        <v>296979</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
-        <v>518</v>
+        <v>312</v>
       </c>
       <c r="I14" s="7">
-        <v>557385</v>
+        <v>327381</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
-        <v>1032</v>
+        <v>589</v>
       </c>
       <c r="N14" s="7">
-        <v>1100082</v>
+        <v>624360</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,10 +3946,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>526</v>
+        <v>286</v>
       </c>
       <c r="D15" s="7">
-        <v>556817</v>
+        <v>307071</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3916,10 +3961,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>546</v>
+        <v>324</v>
       </c>
       <c r="I15" s="7">
-        <v>589933</v>
+        <v>340694</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3931,10 +3976,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1072</v>
+        <v>610</v>
       </c>
       <c r="N15" s="7">
-        <v>1146750</v>
+        <v>647765</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3960,13 +4005,13 @@
         <v>3098</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3978,10 +4023,10 @@
         <v>39</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3990,10 +4035,10 @@
         <v>6790</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>53</v>
@@ -4011,13 +4056,13 @@
         <v>154356</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -4029,10 +4074,10 @@
         <v>49</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>301</v>
@@ -4041,13 +4086,13 @@
         <v>317304</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4160,13 @@
         <v>3906</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4133,10 +4178,10 @@
         <v>158</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -4145,13 +4190,13 @@
         <v>12752</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4211,13 @@
         <v>245108</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>246</v>
@@ -4184,10 +4229,10 @@
         <v>165</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="M20" s="7">
         <v>479</v>
@@ -4196,13 +4241,13 @@
         <v>501092</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4315,13 @@
         <v>13496</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -4291,7 +4336,7 @@
         <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -4300,13 +4345,13 @@
         <v>27353</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,10 +4366,10 @@
         <v>560657</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>155</v>
@@ -4339,7 +4384,7 @@
         <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>155</v>
@@ -4348,16 +4393,16 @@
         <v>1081</v>
       </c>
       <c r="N23" s="7">
-        <v>1171821</v>
+        <v>1171820</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,7 +4444,7 @@
         <v>1107</v>
       </c>
       <c r="N24" s="7">
-        <v>1199174</v>
+        <v>1199173</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4425,13 +4470,13 @@
         <v>5148</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -4443,7 +4488,7 @@
         <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>162</v>
@@ -4458,7 +4503,7 @@
         <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>145</v>
@@ -4476,13 +4521,13 @@
         <v>606455</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="H26" s="7">
         <v>620</v>
@@ -4497,7 +4542,7 @@
         <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="M26" s="7">
         <v>1181</v>
@@ -4512,7 +4557,7 @@
         <v>153</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4625,13 @@
         <v>48784</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
@@ -4595,13 +4640,13 @@
         <v>86161</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="M28" s="7">
         <v>122</v>
@@ -4610,13 +4655,13 @@
         <v>134945</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,16 +4673,16 @@
         <v>2626</v>
       </c>
       <c r="D29" s="7">
-        <v>2787936</v>
+        <v>2787935</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="H29" s="7">
         <v>2768</v>
@@ -4646,13 +4691,13 @@
         <v>2984023</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="M29" s="7">
         <v>5394</v>
@@ -4661,13 +4706,13 @@
         <v>5771958</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,7 +4724,7 @@
         <v>2671</v>
       </c>
       <c r="D30" s="7">
-        <v>2836720</v>
+        <v>2836719</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -4747,7 +4792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71366A8-1BE2-4DBA-83A9-63E15208C2A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63F8F32-31FA-4ECD-8F04-81BEE3821223}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4764,7 +4809,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4871,13 +4916,13 @@
         <v>11166</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4886,13 +4931,13 @@
         <v>11367</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4901,13 +4946,13 @@
         <v>22533</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4967,13 @@
         <v>234052</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>229</v>
@@ -4937,13 +4982,13 @@
         <v>234967</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>439</v>
@@ -4952,13 +4997,13 @@
         <v>469018</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5071,13 @@
         <v>9656</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5041,10 +5086,10 @@
         <v>5356</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>57</v>
@@ -5056,13 +5101,13 @@
         <v>15012</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5122,13 @@
         <v>353509</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="H8" s="7">
         <v>367</v>
@@ -5092,13 +5137,13 @@
         <v>387971</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="M8" s="7">
         <v>700</v>
@@ -5107,13 +5152,13 @@
         <v>741480</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,10 +5226,10 @@
         <v>2940</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>17</v>
@@ -5196,13 +5241,13 @@
         <v>3980</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5211,13 +5256,13 @@
         <v>6920</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>328</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,16 +5274,16 @@
         <v>300</v>
       </c>
       <c r="D11" s="7">
-        <v>287566</v>
+        <v>287567</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>302</v>
@@ -5247,13 +5292,13 @@
         <v>303784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>602</v>
@@ -5262,13 +5307,13 @@
         <v>591350</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>337</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,7 +5325,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5336,13 +5381,13 @@
         <v>22481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -5351,13 +5396,13 @@
         <v>18482</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -5366,13 +5411,13 @@
         <v>40962</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5432,13 @@
         <v>307566</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>305</v>
@@ -5402,13 +5447,13 @@
         <v>330379</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="M14" s="7">
         <v>598</v>
@@ -5417,13 +5462,13 @@
         <v>637946</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5536,13 @@
         <v>4766</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5506,13 +5551,13 @@
         <v>6688</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5524,10 +5569,10 @@
         <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,13 +5587,13 @@
         <v>114456</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>145</v>
@@ -5557,13 +5602,13 @@
         <v>138812</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>258</v>
@@ -5575,10 +5620,10 @@
         <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5691,13 @@
         <v>1959</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>378</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5661,13 +5706,13 @@
         <v>5334</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5676,13 +5721,13 @@
         <v>7292</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5742,13 @@
         <v>231656</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>384</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="H20" s="7">
         <v>235</v>
@@ -5712,13 +5757,13 @@
         <v>241803</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="M20" s="7">
         <v>463</v>
@@ -5727,13 +5772,13 @@
         <v>473461</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,10 +5846,10 @@
         <v>9894</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>125</v>
@@ -5816,13 +5861,13 @@
         <v>14639</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -5831,13 +5876,13 @@
         <v>24533</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5897,13 @@
         <v>432413</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="H23" s="7">
         <v>447</v>
@@ -5867,13 +5912,13 @@
         <v>472412</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="M23" s="7">
         <v>825</v>
@@ -5882,13 +5927,13 @@
         <v>904825</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5956,7 +6001,7 @@
         <v>13200</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>111</v>
@@ -5971,10 +6016,10 @@
         <v>10555</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>88</v>
@@ -5986,13 +6031,13 @@
         <v>23755</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,7 +6052,7 @@
         <v>627052</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>41</v>
@@ -6019,16 +6064,16 @@
         <v>626</v>
       </c>
       <c r="I26" s="7">
-        <v>680787</v>
+        <v>680786</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>97</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="M26" s="7">
         <v>1229</v>
@@ -6037,13 +6082,13 @@
         <v>1307838</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,7 +6115,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6111,13 +6156,13 @@
         <v>76062</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="H28" s="7">
         <v>71</v>
@@ -6126,13 +6171,13 @@
         <v>76400</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="M28" s="7">
         <v>143</v>
@@ -6141,13 +6186,13 @@
         <v>152462</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,16 +6204,16 @@
         <v>2458</v>
       </c>
       <c r="D29" s="7">
-        <v>2588272</v>
+        <v>2588271</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="H29" s="7">
         <v>2656</v>
@@ -6177,28 +6222,28 @@
         <v>2790915</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="M29" s="7">
         <v>5114</v>
       </c>
       <c r="N29" s="7">
-        <v>5379187</v>
+        <v>5379186</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,7 +6255,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6240,7 +6285,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
